--- a/template.xlsx
+++ b/template.xlsx
@@ -1,14 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28605"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28618"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89066101-C16D-42F6-8BCB-26B0CE75B97F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4F34361-7C33-4BEC-BEE9-181E9EE21546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист4" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -666,7 +668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -893,4 +895,28 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0BF4443-8919-4209-8FED-45AE61E8DF44}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FA5D161-4A39-44E9-8A23-4E9BC266CCC2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>